--- a/uploads/sandbox_Production_invoice.xlsx
+++ b/uploads/sandbox_Production_invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47252DE-43FB-4258-97A5-8433B3CD9F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656050DF-946D-416D-A31F-DEB41B0D09AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{760F17F9-C6B3-41C5-B918-0FB8C401C1FD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="721">
   <si>
     <t>sellerBusinessName</t>
   </si>
@@ -135,9 +135,6 @@
     <t>0</t>
   </si>
   <si>
-    <t xml:space="preserve"> Seller Information</t>
-  </si>
-  <si>
     <t>Invoice Information</t>
   </si>
   <si>
@@ -312,9 +309,6 @@
     <t>KAMRAN ENGINEERING INDUSTRIES PVT LTD</t>
   </si>
   <si>
-    <t>1280797-4</t>
-  </si>
-  <si>
     <t>F/628, SITE, SITE, Karachi West Site Town</t>
   </si>
   <si>
@@ -2133,85 +2127,79 @@
     <t>buyerCode</t>
   </si>
   <si>
+    <t>SN003</t>
+  </si>
+  <si>
     <t>sellerSTRN</t>
   </si>
   <si>
+    <t>8255820</t>
+  </si>
+  <si>
     <t>buyerSTRN</t>
   </si>
   <si>
+    <t>32-7787-6203-99-6</t>
+  </si>
+  <si>
+    <t>ZAHID ENTERPRISES STEEL RE ROLLING MILLS</t>
+  </si>
+  <si>
+    <t>NEAR KHOKHAR VILLAGE, RING ROAD, BADAMI BAGH, LAHORE RAVI TOWN</t>
+  </si>
+  <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Steel melting and re-rolling</t>
+  </si>
+  <si>
     <t>STrate</t>
   </si>
   <si>
+    <t>7214.9990</t>
+  </si>
+  <si>
+    <t>ROUND BARS</t>
+  </si>
+  <si>
     <t>buyerRegistrationType</t>
   </si>
   <si>
     <t>Registered</t>
   </si>
   <si>
-    <t>COMPUTER GOLD &amp; PACKAGING (PRIVATE) LIMITED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178-S, Quaid-e-Azam Industrial Estate Lahore </t>
-  </si>
-  <si>
-    <t>8974121</t>
-  </si>
-  <si>
-    <t>SN001</t>
-  </si>
-  <si>
-    <t>2025-03-17</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Bunny's Limited</t>
-  </si>
-  <si>
-    <t>02-01-6301-001-82</t>
-  </si>
-  <si>
-    <t>4911.9900</t>
-  </si>
-  <si>
-    <t>Box Short Cake Fruit 100GR</t>
-  </si>
-  <si>
-    <t>Numbers, pieces, units</t>
-  </si>
-  <si>
-    <t>87700</t>
-  </si>
-  <si>
-    <t>605130</t>
-  </si>
-  <si>
-    <t>Goods at standard rate (default)</t>
-  </si>
-  <si>
-    <t>6.90</t>
-  </si>
-  <si>
-    <t>108923.4</t>
-  </si>
-  <si>
-    <t>714053.4</t>
-  </si>
-  <si>
-    <t>deliverychallanno</t>
-  </si>
-  <si>
-    <t>3137</t>
-  </si>
-  <si>
-    <t>0803115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industrial Estate, KotLakhpat Lahore, Punjab, Pakistan, Hello </t>
-  </si>
-  <si>
-    <t>deliverychallandate</t>
+    <t>1280797</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>CNIC</t>
+  </si>
+  <si>
+    <t>PO#</t>
+  </si>
+  <si>
+    <t>205196</t>
+  </si>
+  <si>
+    <t>8.26</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>1694915.25</t>
+  </si>
+  <si>
+    <t>305084.75</t>
+  </si>
+  <si>
+    <t>Seller Information</t>
   </si>
 </sst>
 </file>
@@ -2407,7 +2395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2537,7 +2525,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2874,36 +2861,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E7F905-168E-44F5-986A-893891B51600}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="20.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="6" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16" style="2" customWidth="1"/>
     <col min="12" max="12" width="8.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" style="2" customWidth="1"/>
     <col min="18" max="18" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2911,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2919,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2935,15 +2922,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2951,7 +2938,7 @@
     </row>
     <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2959,7 +2946,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2975,7 +2962,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2983,122 +2970,119 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
-        <v>720</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
-        <v>724</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>34</v>
+      <c r="A13" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B16">
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="B17">
-        <v>117</v>
+        <v>10</v>
+      </c>
+      <c r="B17" t="str">
+        <f>_xlfn.XLOOKUP(B16, Sheet2!A:A, Sheet2!B:B, "Not Found")</f>
+        <v>KAMRAN ENGINEERING INDUSTRIES PVT LTD</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>709</v>
+        <v>11</v>
+      </c>
+      <c r="B18" t="str">
+        <f>_xlfn.XLOOKUP(B16, Sheet2!A:A, Sheet2!D:D, "Not Found")</f>
+        <v>F/628, SITE, SITE, Karachi West Site Town</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>723</v>
+        <v>12</v>
+      </c>
+      <c r="B19" t="str">
+        <f>_xlfn.XLOOKUP(B16, Sheet2!A:A, Sheet2!E:E, "Not Found")</f>
+        <v>Punjab</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" t="str">
-        <f>_xlfn.XLOOKUP(B17, Sheet2!A:A, Sheet2!E:E, "Not Found")</f>
-        <v>Punjab</v>
+        <f>_xlfn.XLOOKUP(B16, Sheet2!A:A, Sheet2!C:C, "Not Found")</f>
+        <v>1280797</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>722</v>
+        <v>699</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="B22" t="s">
+        <v>709</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>35</v>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>23</v>
@@ -3127,31 +3111,31 @@
     </row>
     <row r="27" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>718</v>
+      <c r="I27" s="2" t="s">
+        <v>704</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>31</v>
@@ -3166,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -3180,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA83665-8E91-4EB4-9BED-BA2D048FF830}">
   <dimension ref="A1:E400"/>
   <sheetViews>
-    <sheetView zoomScale="55" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3195,19 +3179,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -3215,13 +3199,13 @@
         <v>101</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>3</v>
@@ -3232,13 +3216,13 @@
         <v>102</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>3</v>
@@ -3249,13 +3233,13 @@
         <v>103</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>3</v>
@@ -3266,13 +3250,13 @@
         <v>104</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>3</v>
@@ -3283,13 +3267,13 @@
         <v>105</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>3</v>
@@ -3300,13 +3284,13 @@
         <v>106</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>3</v>
@@ -3317,13 +3301,13 @@
         <v>107</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>3</v>
@@ -3334,30 +3318,30 @@
         <v>108</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="E9" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="42" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>109</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>3</v>
@@ -3368,13 +3352,13 @@
         <v>110</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>3</v>
@@ -3385,30 +3369,30 @@
         <v>111</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="E12" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>112</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>3</v>
@@ -3419,13 +3403,13 @@
         <v>113</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>3</v>
@@ -3436,13 +3420,13 @@
         <v>114</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="D15" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>3</v>
@@ -3453,13 +3437,13 @@
         <v>115</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>3</v>
@@ -3470,13 +3454,13 @@
         <v>116</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>89</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>3</v>
@@ -3487,13 +3471,13 @@
         <v>117</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>3</v>
@@ -3504,13 +3488,13 @@
         <v>118</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>93</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>3</v>
@@ -3521,13 +3505,13 @@
         <v>119</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>3</v>
@@ -3538,13 +3522,13 @@
         <v>120</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>3</v>
@@ -3555,13 +3539,13 @@
         <v>121</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>104</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>3</v>
@@ -3572,13 +3556,13 @@
         <v>122</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>107</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>3</v>
@@ -3589,13 +3573,13 @@
         <v>123</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>3</v>
@@ -3606,13 +3590,13 @@
         <v>124</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>3</v>
@@ -3623,13 +3607,13 @@
         <v>125</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>3</v>
@@ -3640,13 +3624,13 @@
         <v>126</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>3</v>
@@ -3657,13 +3641,13 @@
         <v>127</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>3</v>
@@ -3674,13 +3658,13 @@
         <v>128</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>3</v>
@@ -3691,13 +3675,13 @@
         <v>129</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>3</v>
@@ -3708,13 +3692,13 @@
         <v>130</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>131</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>3</v>
@@ -3725,13 +3709,13 @@
         <v>131</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>3</v>
@@ -3742,13 +3726,13 @@
         <v>132</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>3</v>
@@ -3759,13 +3743,13 @@
         <v>133</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>3</v>
@@ -3776,13 +3760,13 @@
         <v>134</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>3</v>
@@ -3793,13 +3777,13 @@
         <v>135</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>3</v>
@@ -3810,13 +3794,13 @@
         <v>136</v>
       </c>
       <c r="B37" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>149</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>3</v>
@@ -3827,13 +3811,13 @@
         <v>137</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>3</v>
@@ -3844,13 +3828,13 @@
         <v>138</v>
       </c>
       <c r="B39" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>155</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>3</v>
@@ -3861,13 +3845,13 @@
         <v>139</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>158</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>3</v>
@@ -3878,13 +3862,13 @@
         <v>140</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>3</v>
@@ -3895,13 +3879,13 @@
         <v>141</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>164</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>3</v>
@@ -3912,16 +3896,16 @@
         <v>142</v>
       </c>
       <c r="B43" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="E43" s="22" t="s">
         <v>166</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -3929,13 +3913,13 @@
         <v>143</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>3</v>
@@ -3946,13 +3930,13 @@
         <v>144</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="24" t="s">
         <v>172</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>174</v>
       </c>
       <c r="E45" s="22" t="s">
         <v>3</v>
@@ -3963,13 +3947,13 @@
         <v>145</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" s="24" t="s">
         <v>175</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>177</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>3</v>
@@ -3980,13 +3964,13 @@
         <v>146</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>178</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>180</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>3</v>
@@ -3997,13 +3981,13 @@
         <v>147</v>
       </c>
       <c r="B48" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>183</v>
       </c>
       <c r="E48" s="22" t="s">
         <v>3</v>
@@ -4014,13 +3998,13 @@
         <v>148</v>
       </c>
       <c r="B49" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="32" t="s">
         <v>184</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>186</v>
       </c>
       <c r="E49" s="22" t="s">
         <v>3</v>
@@ -4031,13 +4015,13 @@
         <v>149</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>187</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>189</v>
       </c>
       <c r="E50" s="22" t="s">
         <v>3</v>
@@ -4048,13 +4032,13 @@
         <v>150</v>
       </c>
       <c r="B51" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>190</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="E51" s="22" t="s">
         <v>3</v>
@@ -4065,13 +4049,13 @@
         <v>151</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E52" s="22" t="s">
         <v>3</v>
@@ -4082,13 +4066,13 @@
         <v>152</v>
       </c>
       <c r="B53" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="29" t="s">
         <v>195</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>3</v>
@@ -4099,13 +4083,13 @@
         <v>153</v>
       </c>
       <c r="B54" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" s="29" t="s">
         <v>198</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>200</v>
       </c>
       <c r="E54" s="22" t="s">
         <v>3</v>
@@ -4116,13 +4100,13 @@
         <v>154</v>
       </c>
       <c r="B55" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" s="29" t="s">
         <v>201</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>203</v>
       </c>
       <c r="E55" s="22" t="s">
         <v>3</v>
@@ -4133,13 +4117,13 @@
         <v>155</v>
       </c>
       <c r="B56" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="29" t="s">
         <v>204</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>206</v>
       </c>
       <c r="E56" s="22" t="s">
         <v>3</v>
@@ -4150,13 +4134,13 @@
         <v>156</v>
       </c>
       <c r="B57" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="26" t="s">
         <v>207</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>209</v>
       </c>
       <c r="E57" s="22" t="s">
         <v>3</v>
@@ -4167,13 +4151,13 @@
         <v>157</v>
       </c>
       <c r="B58" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" s="29" t="s">
         <v>210</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>212</v>
       </c>
       <c r="E58" s="22" t="s">
         <v>3</v>
@@ -4184,13 +4168,13 @@
         <v>158</v>
       </c>
       <c r="B59" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="26" t="s">
         <v>213</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>215</v>
       </c>
       <c r="E59" s="22" t="s">
         <v>3</v>
@@ -4201,13 +4185,13 @@
         <v>159</v>
       </c>
       <c r="B60" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D60" s="29" t="s">
         <v>216</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>218</v>
       </c>
       <c r="E60" s="22" t="s">
         <v>3</v>
@@ -4218,16 +4202,16 @@
         <v>160</v>
       </c>
       <c r="B61" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="C61" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>221</v>
-      </c>
       <c r="E61" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -4235,13 +4219,13 @@
         <v>161</v>
       </c>
       <c r="B62" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D62" s="26" t="s">
         <v>222</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>224</v>
       </c>
       <c r="E62" s="22" t="s">
         <v>3</v>
@@ -4252,13 +4236,13 @@
         <v>162</v>
       </c>
       <c r="B63" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D63" s="29" t="s">
         <v>225</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>227</v>
       </c>
       <c r="E63" s="22" t="s">
         <v>3</v>
@@ -4269,13 +4253,13 @@
         <v>163</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E64" s="22" t="s">
         <v>3</v>
@@ -4286,13 +4270,13 @@
         <v>164</v>
       </c>
       <c r="B65" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65" s="29" t="s">
         <v>229</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>231</v>
       </c>
       <c r="E65" s="22" t="s">
         <v>3</v>
@@ -4303,13 +4287,13 @@
         <v>165</v>
       </c>
       <c r="B66" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>234</v>
       </c>
       <c r="E66" s="22" t="s">
         <v>3</v>
@@ -4320,13 +4304,13 @@
         <v>166</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D67" s="26" t="s">
         <v>235</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>237</v>
       </c>
       <c r="E67" s="22" t="s">
         <v>3</v>
@@ -4337,16 +4321,16 @@
         <v>167</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="D68" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="C68" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>240</v>
-      </c>
       <c r="E68" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -4354,16 +4338,16 @@
         <v>168</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D69" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C69" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>243</v>
-      </c>
       <c r="E69" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -4371,13 +4355,13 @@
         <v>169</v>
       </c>
       <c r="B70" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="D70" s="29" t="s">
         <v>244</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>246</v>
       </c>
       <c r="E70" s="22" t="s">
         <v>3</v>
@@ -4388,13 +4372,13 @@
         <v>170</v>
       </c>
       <c r="B71" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>249</v>
       </c>
       <c r="E71" s="22" t="s">
         <v>3</v>
@@ -4405,16 +4389,16 @@
         <v>171</v>
       </c>
       <c r="B72" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D72" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="C72" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>252</v>
-      </c>
       <c r="E72" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -4422,13 +4406,13 @@
         <v>172</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" s="26" t="s">
         <v>253</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>255</v>
       </c>
       <c r="E73" s="22" t="s">
         <v>3</v>
@@ -4439,16 +4423,16 @@
         <v>173</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="C74" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>258</v>
-      </c>
       <c r="E74" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -4456,13 +4440,13 @@
         <v>174</v>
       </c>
       <c r="B75" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D75" s="26" t="s">
         <v>259</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>261</v>
       </c>
       <c r="E75" s="22" t="s">
         <v>3</v>
@@ -4473,13 +4457,13 @@
         <v>175</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D76" s="26" t="s">
         <v>262</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>264</v>
       </c>
       <c r="E76" s="22" t="s">
         <v>3</v>
@@ -4490,13 +4474,13 @@
         <v>176</v>
       </c>
       <c r="B77" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="D77" s="37" t="s">
         <v>265</v>
-      </c>
-      <c r="C77" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="D77" s="37" t="s">
-        <v>267</v>
       </c>
       <c r="E77" s="22" t="s">
         <v>3</v>
@@ -4507,13 +4491,13 @@
         <v>177</v>
       </c>
       <c r="B78" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" s="26" t="s">
         <v>268</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>270</v>
       </c>
       <c r="E78" s="22" t="s">
         <v>3</v>
@@ -4524,13 +4508,13 @@
         <v>178</v>
       </c>
       <c r="B79" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="D79" s="39" t="s">
         <v>271</v>
-      </c>
-      <c r="C79" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="D79" s="39" t="s">
-        <v>273</v>
       </c>
       <c r="E79" s="22" t="s">
         <v>3</v>
@@ -4541,13 +4525,13 @@
         <v>179</v>
       </c>
       <c r="B80" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="D80" s="26" t="s">
         <v>274</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>276</v>
       </c>
       <c r="E80" s="22" t="s">
         <v>3</v>
@@ -4558,13 +4542,13 @@
         <v>180</v>
       </c>
       <c r="B81" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="D81" s="26" t="s">
         <v>277</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="D81" s="26" t="s">
-        <v>279</v>
       </c>
       <c r="E81" s="22" t="s">
         <v>3</v>
@@ -4575,13 +4559,13 @@
         <v>181</v>
       </c>
       <c r="B82" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="C82" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="D82" s="42" t="s">
         <v>280</v>
-      </c>
-      <c r="C82" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="D82" s="42" t="s">
-        <v>282</v>
       </c>
       <c r="E82" s="22" t="s">
         <v>3</v>
@@ -4592,13 +4576,13 @@
         <v>182</v>
       </c>
       <c r="B83" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="D83" s="26" t="s">
         <v>283</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>285</v>
       </c>
       <c r="E83" s="22" t="s">
         <v>3</v>
@@ -4609,13 +4593,13 @@
         <v>183</v>
       </c>
       <c r="B84" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="D84" s="26" t="s">
         <v>286</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="E84" s="22" t="s">
         <v>3</v>
@@ -4626,13 +4610,13 @@
         <v>184</v>
       </c>
       <c r="B85" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="D85" s="26" t="s">
         <v>289</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>291</v>
       </c>
       <c r="E85" s="22" t="s">
         <v>3</v>
@@ -4643,13 +4627,13 @@
         <v>185</v>
       </c>
       <c r="B86" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D86" s="26" t="s">
         <v>292</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>294</v>
       </c>
       <c r="E86" s="22" t="s">
         <v>3</v>
@@ -4660,16 +4644,16 @@
         <v>186</v>
       </c>
       <c r="B87" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="D87" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="E87" s="22" t="s">
         <v>296</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -4677,13 +4661,13 @@
         <v>187</v>
       </c>
       <c r="B88" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D88" s="26" t="s">
         <v>299</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>301</v>
       </c>
       <c r="E88" s="22" t="s">
         <v>3</v>
@@ -4694,13 +4678,13 @@
         <v>188</v>
       </c>
       <c r="B89" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D89" s="43" t="s">
         <v>302</v>
-      </c>
-      <c r="C89" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="D89" s="43" t="s">
-        <v>304</v>
       </c>
       <c r="E89" s="22" t="s">
         <v>3</v>
@@ -4711,13 +4695,13 @@
         <v>189</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D90" s="26" t="s">
         <v>305</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>307</v>
       </c>
       <c r="E90" s="22" t="s">
         <v>3</v>
@@ -4728,13 +4712,13 @@
         <v>190</v>
       </c>
       <c r="B91" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D91" s="26" t="s">
         <v>308</v>
-      </c>
-      <c r="C91" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="D91" s="26" t="s">
-        <v>310</v>
       </c>
       <c r="E91" s="22" t="s">
         <v>3</v>
@@ -4745,13 +4729,13 @@
         <v>191</v>
       </c>
       <c r="B92" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D92" s="26" t="s">
         <v>311</v>
-      </c>
-      <c r="C92" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>313</v>
       </c>
       <c r="E92" s="22" t="s">
         <v>3</v>
@@ -4762,13 +4746,13 @@
         <v>192</v>
       </c>
       <c r="B93" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="D93" s="26" t="s">
         <v>314</v>
-      </c>
-      <c r="C93" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>316</v>
       </c>
       <c r="E93" s="22" t="s">
         <v>3</v>
@@ -4779,13 +4763,13 @@
         <v>193</v>
       </c>
       <c r="B94" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="D94" s="26" t="s">
         <v>317</v>
-      </c>
-      <c r="C94" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="D94" s="26" t="s">
-        <v>319</v>
       </c>
       <c r="E94" s="22" t="s">
         <v>3</v>
@@ -4796,13 +4780,13 @@
         <v>194</v>
       </c>
       <c r="B95" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D95" s="26" t="s">
         <v>320</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="D95" s="26" t="s">
-        <v>322</v>
       </c>
       <c r="E95" s="22" t="s">
         <v>3</v>
@@ -4813,13 +4797,13 @@
         <v>195</v>
       </c>
       <c r="B96" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="D96" s="26" t="s">
         <v>323</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="D96" s="26" t="s">
-        <v>325</v>
       </c>
       <c r="E96" s="22" t="s">
         <v>3</v>
@@ -4830,13 +4814,13 @@
         <v>196</v>
       </c>
       <c r="B97" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="D97" s="26" t="s">
         <v>326</v>
-      </c>
-      <c r="C97" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="D97" s="26" t="s">
-        <v>328</v>
       </c>
       <c r="E97" s="22" t="s">
         <v>3</v>
@@ -4847,13 +4831,13 @@
         <v>197</v>
       </c>
       <c r="B98" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D98" s="26" t="s">
         <v>329</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="D98" s="26" t="s">
-        <v>331</v>
       </c>
       <c r="E98" s="22" t="s">
         <v>3</v>
@@ -4864,13 +4848,13 @@
         <v>198</v>
       </c>
       <c r="B99" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D99" s="26" t="s">
         <v>332</v>
-      </c>
-      <c r="C99" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="D99" s="26" t="s">
-        <v>334</v>
       </c>
       <c r="E99" s="22" t="s">
         <v>3</v>
@@ -4881,13 +4865,13 @@
         <v>199</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C100" s="44">
         <v>7051427</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E100" s="22" t="s">
         <v>3</v>
@@ -4898,13 +4882,13 @@
         <v>200</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E101" s="22" t="s">
         <v>31</v>
@@ -4915,16 +4899,16 @@
         <v>201</v>
       </c>
       <c r="B102" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D102" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="C102" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="D102" s="26" t="s">
-        <v>341</v>
-      </c>
       <c r="E102" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -4932,13 +4916,13 @@
         <v>202</v>
       </c>
       <c r="B103" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D103" s="26" t="s">
         <v>342</v>
-      </c>
-      <c r="C103" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>344</v>
       </c>
       <c r="E103" s="22" t="s">
         <v>3</v>
@@ -4949,13 +4933,13 @@
         <v>203</v>
       </c>
       <c r="B104" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D104" s="26" t="s">
         <v>345</v>
-      </c>
-      <c r="C104" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="D104" s="26" t="s">
-        <v>347</v>
       </c>
       <c r="E104" s="22" t="s">
         <v>3</v>
@@ -4966,13 +4950,13 @@
         <v>204</v>
       </c>
       <c r="B105" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D105" s="26" t="s">
         <v>348</v>
-      </c>
-      <c r="C105" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="D105" s="26" t="s">
-        <v>350</v>
       </c>
       <c r="E105" s="22" t="s">
         <v>3</v>
@@ -4983,13 +4967,13 @@
         <v>205</v>
       </c>
       <c r="B106" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="D106" s="26" t="s">
         <v>351</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="D106" s="26" t="s">
-        <v>353</v>
       </c>
       <c r="E106" s="22" t="s">
         <v>3</v>
@@ -5000,13 +4984,13 @@
         <v>206</v>
       </c>
       <c r="B107" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="D107" s="26" t="s">
         <v>354</v>
-      </c>
-      <c r="C107" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="D107" s="26" t="s">
-        <v>356</v>
       </c>
       <c r="E107" s="22" t="s">
         <v>3</v>
@@ -5017,13 +5001,13 @@
         <v>207</v>
       </c>
       <c r="B108" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="D108" s="26" t="s">
         <v>357</v>
-      </c>
-      <c r="C108" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="D108" s="26" t="s">
-        <v>359</v>
       </c>
       <c r="E108" s="22" t="s">
         <v>3</v>
@@ -5034,13 +5018,13 @@
         <v>208</v>
       </c>
       <c r="B109" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D109" s="26" t="s">
         <v>360</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="D109" s="26" t="s">
-        <v>362</v>
       </c>
       <c r="E109" s="22" t="s">
         <v>3</v>
@@ -5051,16 +5035,16 @@
         <v>209</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C110" s="25">
         <v>4289379</v>
       </c>
       <c r="D110" s="45" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -5068,13 +5052,13 @@
         <v>210</v>
       </c>
       <c r="B111" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D111" s="26" t="s">
         <v>366</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="D111" s="26" t="s">
-        <v>368</v>
       </c>
       <c r="E111" s="22" t="s">
         <v>3</v>
@@ -5085,13 +5069,13 @@
         <v>211</v>
       </c>
       <c r="B112" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="D112" s="26" t="s">
         <v>369</v>
-      </c>
-      <c r="C112" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="D112" s="26" t="s">
-        <v>371</v>
       </c>
       <c r="E112" s="22" t="s">
         <v>3</v>
@@ -5102,13 +5086,13 @@
         <v>212</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E113" s="22" t="s">
         <v>3</v>
@@ -5119,13 +5103,13 @@
         <v>213</v>
       </c>
       <c r="B114" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D114" s="26" t="s">
         <v>374</v>
-      </c>
-      <c r="C114" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="D114" s="26" t="s">
-        <v>376</v>
       </c>
       <c r="E114" s="22" t="s">
         <v>3</v>
@@ -5136,13 +5120,13 @@
         <v>214</v>
       </c>
       <c r="B115" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D115" s="26" t="s">
         <v>377</v>
-      </c>
-      <c r="C115" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="D115" s="26" t="s">
-        <v>379</v>
       </c>
       <c r="E115" s="22" t="s">
         <v>3</v>
@@ -5153,16 +5137,16 @@
         <v>215</v>
       </c>
       <c r="B116" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C116" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="D116" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="C116" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="D116" s="26" t="s">
-        <v>382</v>
-      </c>
       <c r="E116" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -5170,13 +5154,13 @@
         <v>216</v>
       </c>
       <c r="B117" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="D117" s="26" t="s">
         <v>383</v>
-      </c>
-      <c r="C117" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="D117" s="26" t="s">
-        <v>385</v>
       </c>
       <c r="E117" s="22" t="s">
         <v>3</v>
@@ -5187,16 +5171,16 @@
         <v>217</v>
       </c>
       <c r="B118" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D118" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="C118" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="D118" s="26" t="s">
-        <v>388</v>
-      </c>
       <c r="E118" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -5204,13 +5188,13 @@
         <v>218</v>
       </c>
       <c r="B119" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="D119" s="26" t="s">
         <v>389</v>
-      </c>
-      <c r="C119" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="D119" s="26" t="s">
-        <v>391</v>
       </c>
       <c r="E119" s="22" t="s">
         <v>3</v>
@@ -5221,13 +5205,13 @@
         <v>219</v>
       </c>
       <c r="B120" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D120" s="26" t="s">
         <v>392</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="D120" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="E120" s="22" t="s">
         <v>3</v>
@@ -5238,13 +5222,13 @@
         <v>220</v>
       </c>
       <c r="B121" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="D121" s="26" t="s">
         <v>395</v>
-      </c>
-      <c r="C121" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="D121" s="26" t="s">
-        <v>397</v>
       </c>
       <c r="E121" s="22" t="s">
         <v>3</v>
@@ -5255,13 +5239,13 @@
         <v>221</v>
       </c>
       <c r="B122" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="D122" s="26" t="s">
         <v>398</v>
-      </c>
-      <c r="C122" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="D122" s="26" t="s">
-        <v>400</v>
       </c>
       <c r="E122" s="22" t="s">
         <v>3</v>
@@ -5272,13 +5256,13 @@
         <v>222</v>
       </c>
       <c r="B123" s="48" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C123" s="25">
         <v>7540542</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E123" s="22" t="s">
         <v>3</v>
@@ -5289,13 +5273,13 @@
         <v>223</v>
       </c>
       <c r="B124" s="48" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E124" s="22" t="s">
         <v>3</v>
@@ -5306,13 +5290,13 @@
         <v>224</v>
       </c>
       <c r="B125" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="D125" s="11" t="s">
         <v>405</v>
-      </c>
-      <c r="C125" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>407</v>
       </c>
       <c r="E125" s="22"/>
     </row>
@@ -5321,13 +5305,13 @@
         <v>225</v>
       </c>
       <c r="B126" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="D126" s="11" t="s">
         <v>408</v>
-      </c>
-      <c r="C126" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>410</v>
       </c>
       <c r="E126" s="22"/>
     </row>
@@ -5336,13 +5320,13 @@
         <v>226</v>
       </c>
       <c r="B127" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C127" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="D127" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="C127" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>413</v>
       </c>
       <c r="E127" s="22"/>
     </row>
@@ -5351,13 +5335,13 @@
         <v>227</v>
       </c>
       <c r="B128" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="D128" s="11" t="s">
         <v>414</v>
-      </c>
-      <c r="C128" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>416</v>
       </c>
       <c r="E128" s="22"/>
     </row>
@@ -5366,13 +5350,13 @@
         <v>228</v>
       </c>
       <c r="B129" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D129" s="11" t="s">
         <v>417</v>
-      </c>
-      <c r="C129" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>419</v>
       </c>
       <c r="E129" s="22"/>
     </row>
@@ -5381,13 +5365,13 @@
         <v>229</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E130" s="22"/>
     </row>
@@ -5396,13 +5380,13 @@
         <v>230</v>
       </c>
       <c r="B131" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C131" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="D131" s="11" t="s">
         <v>422</v>
-      </c>
-      <c r="C131" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>424</v>
       </c>
       <c r="E131" s="22"/>
     </row>
@@ -5411,13 +5395,13 @@
         <v>231</v>
       </c>
       <c r="B132" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="D132" s="11" t="s">
         <v>425</v>
-      </c>
-      <c r="C132" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>427</v>
       </c>
       <c r="E132" s="22"/>
     </row>
@@ -5426,13 +5410,13 @@
         <v>232</v>
       </c>
       <c r="B133" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D133" s="11" t="s">
         <v>428</v>
-      </c>
-      <c r="C133" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>430</v>
       </c>
       <c r="E133" s="22"/>
     </row>
@@ -5441,13 +5425,13 @@
         <v>233</v>
       </c>
       <c r="B134" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D134" s="11" t="s">
         <v>348</v>
-      </c>
-      <c r="C134" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>350</v>
       </c>
       <c r="E134" s="22"/>
     </row>
@@ -5456,13 +5440,13 @@
         <v>234</v>
       </c>
       <c r="B135" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C135" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="D135" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="C135" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>433</v>
       </c>
       <c r="E135" s="22"/>
     </row>
@@ -5471,13 +5455,13 @@
         <v>235</v>
       </c>
       <c r="B136" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="D136" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="C136" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>436</v>
       </c>
       <c r="E136" s="22"/>
     </row>
@@ -5486,13 +5470,13 @@
         <v>236</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C137" s="25">
         <v>8926835</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E137" s="22"/>
     </row>
@@ -5501,13 +5485,13 @@
         <v>237</v>
       </c>
       <c r="B138" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="D138" s="26" t="s">
         <v>439</v>
-      </c>
-      <c r="C138" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="D138" s="26" t="s">
-        <v>441</v>
       </c>
       <c r="E138" s="22" t="s">
         <v>3</v>
@@ -5518,13 +5502,13 @@
         <v>238</v>
       </c>
       <c r="B139" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C139" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="D139" s="26" t="s">
         <v>442</v>
-      </c>
-      <c r="C139" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="D139" s="26" t="s">
-        <v>444</v>
       </c>
       <c r="E139" s="22" t="s">
         <v>3</v>
@@ -5535,13 +5519,13 @@
         <v>239</v>
       </c>
       <c r="B140" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C140" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="D140" s="26" t="s">
         <v>445</v>
-      </c>
-      <c r="C140" s="25" t="s">
-        <v>446</v>
-      </c>
-      <c r="D140" s="26" t="s">
-        <v>447</v>
       </c>
       <c r="E140" s="22" t="s">
         <v>3</v>
@@ -5552,13 +5536,13 @@
         <v>240</v>
       </c>
       <c r="B141" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="C141" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="D141" s="26" t="s">
         <v>448</v>
-      </c>
-      <c r="C141" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="D141" s="26" t="s">
-        <v>450</v>
       </c>
       <c r="E141" s="22" t="s">
         <v>3</v>
@@ -5569,16 +5553,16 @@
         <v>241</v>
       </c>
       <c r="B142" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="C142" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="D142" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E142" s="22" t="s">
         <v>451</v>
-      </c>
-      <c r="C142" s="31" t="s">
-        <v>452</v>
-      </c>
-      <c r="D142" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="E142" s="22" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -5586,13 +5570,13 @@
         <v>242</v>
       </c>
       <c r="B143" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C143" s="31" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D143" s="26" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E143" s="22" t="s">
         <v>3</v>
@@ -5603,13 +5587,13 @@
         <v>243</v>
       </c>
       <c r="B144" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="C144" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="D144" s="26" t="s">
         <v>456</v>
-      </c>
-      <c r="C144" s="31" t="s">
-        <v>457</v>
-      </c>
-      <c r="D144" s="26" t="s">
-        <v>458</v>
       </c>
       <c r="E144" s="22" t="s">
         <v>3</v>
@@ -5620,13 +5604,13 @@
         <v>244</v>
       </c>
       <c r="B145" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="C145" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="D145" s="26" t="s">
         <v>459</v>
-      </c>
-      <c r="C145" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="D145" s="26" t="s">
-        <v>461</v>
       </c>
       <c r="E145" s="22" t="s">
         <v>3</v>
@@ -5637,13 +5621,13 @@
         <v>245</v>
       </c>
       <c r="B146" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="C146" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="D146" s="26" t="s">
         <v>462</v>
-      </c>
-      <c r="C146" s="31" t="s">
-        <v>463</v>
-      </c>
-      <c r="D146" s="26" t="s">
-        <v>464</v>
       </c>
       <c r="E146" s="22" t="s">
         <v>3</v>
@@ -5654,13 +5638,13 @@
         <v>246</v>
       </c>
       <c r="B147" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="C147" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="D147" s="26" t="s">
         <v>465</v>
-      </c>
-      <c r="C147" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="D147" s="26" t="s">
-        <v>467</v>
       </c>
       <c r="E147" s="22" t="s">
         <v>3</v>
@@ -5671,13 +5655,13 @@
         <v>247</v>
       </c>
       <c r="B148" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="C148" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="D148" s="26" t="s">
         <v>468</v>
-      </c>
-      <c r="C148" s="31" t="s">
-        <v>469</v>
-      </c>
-      <c r="D148" s="26" t="s">
-        <v>470</v>
       </c>
       <c r="E148" s="22" t="s">
         <v>3</v>
@@ -5688,13 +5672,13 @@
         <v>248</v>
       </c>
       <c r="B149" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="C149" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="D149" s="26" t="s">
         <v>471</v>
-      </c>
-      <c r="C149" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="D149" s="26" t="s">
-        <v>473</v>
       </c>
       <c r="E149" s="22" t="s">
         <v>3</v>
@@ -5705,13 +5689,13 @@
         <v>249</v>
       </c>
       <c r="B150" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="C150" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="D150" s="26" t="s">
         <v>474</v>
-      </c>
-      <c r="C150" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="D150" s="26" t="s">
-        <v>476</v>
       </c>
       <c r="E150" s="22" t="s">
         <v>3</v>
@@ -5722,16 +5706,16 @@
         <v>250</v>
       </c>
       <c r="B151" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="C151" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="D151" s="26" t="s">
         <v>477</v>
       </c>
-      <c r="C151" s="31" t="s">
+      <c r="E151" s="22" t="s">
         <v>478</v>
-      </c>
-      <c r="D151" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="E151" s="22" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -5739,13 +5723,13 @@
         <v>251</v>
       </c>
       <c r="B152" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C152" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="D152" s="26" t="s">
         <v>481</v>
-      </c>
-      <c r="C152" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="D152" s="26" t="s">
-        <v>483</v>
       </c>
       <c r="E152" s="22"/>
     </row>
@@ -5754,13 +5738,13 @@
         <v>252</v>
       </c>
       <c r="B153" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="C153" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="D153" s="26" t="s">
         <v>484</v>
-      </c>
-      <c r="C153" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="D153" s="26" t="s">
-        <v>486</v>
       </c>
       <c r="E153" s="22"/>
     </row>
@@ -5769,13 +5753,13 @@
         <v>253</v>
       </c>
       <c r="B154" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="D154" s="26" t="s">
         <v>487</v>
-      </c>
-      <c r="C154" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="D154" s="26" t="s">
-        <v>489</v>
       </c>
       <c r="E154" s="22"/>
     </row>
@@ -5784,16 +5768,16 @@
         <v>254</v>
       </c>
       <c r="B155" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C155" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="D155" s="26" t="s">
         <v>490</v>
       </c>
-      <c r="C155" s="31" t="s">
+      <c r="E155" s="43" t="s">
         <v>491</v>
-      </c>
-      <c r="D155" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="E155" s="43" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -5801,13 +5785,13 @@
         <v>255</v>
       </c>
       <c r="B156" s="27" t="s">
+        <v>492</v>
+      </c>
+      <c r="C156" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="D156" s="26" t="s">
         <v>494</v>
-      </c>
-      <c r="C156" s="31" t="s">
-        <v>495</v>
-      </c>
-      <c r="D156" s="26" t="s">
-        <v>496</v>
       </c>
       <c r="E156" s="22"/>
     </row>
@@ -5816,13 +5800,13 @@
         <v>256</v>
       </c>
       <c r="B157" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="C157" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="D157" s="26" t="s">
         <v>497</v>
-      </c>
-      <c r="C157" s="31" t="s">
-        <v>498</v>
-      </c>
-      <c r="D157" s="26" t="s">
-        <v>499</v>
       </c>
       <c r="E157" s="22"/>
     </row>
@@ -5831,13 +5815,13 @@
         <v>257</v>
       </c>
       <c r="B158" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="C158" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="D158" s="26" t="s">
         <v>500</v>
-      </c>
-      <c r="C158" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="D158" s="26" t="s">
-        <v>502</v>
       </c>
       <c r="E158" s="22"/>
     </row>
@@ -5846,13 +5830,13 @@
         <v>258</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C159" s="31">
         <v>2567679</v>
       </c>
       <c r="D159" s="26" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E159" s="22"/>
     </row>
@@ -5861,13 +5845,13 @@
         <v>259</v>
       </c>
       <c r="B160" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="C160" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="D160" s="26" t="s">
         <v>505</v>
-      </c>
-      <c r="C160" s="31" t="s">
-        <v>506</v>
-      </c>
-      <c r="D160" s="26" t="s">
-        <v>507</v>
       </c>
       <c r="E160" s="22"/>
     </row>
@@ -5876,13 +5860,13 @@
         <v>260</v>
       </c>
       <c r="B161" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="C161" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="D161" s="26" t="s">
         <v>508</v>
-      </c>
-      <c r="C161" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="D161" s="26" t="s">
-        <v>510</v>
       </c>
       <c r="E161" s="22"/>
     </row>
@@ -5891,13 +5875,13 @@
         <v>261</v>
       </c>
       <c r="B162" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C162" s="50">
         <v>3520128412735</v>
       </c>
       <c r="D162" s="26" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E162" s="22"/>
     </row>
@@ -5906,13 +5890,13 @@
         <v>262</v>
       </c>
       <c r="B163" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="C163" s="50" t="s">
+        <v>512</v>
+      </c>
+      <c r="D163" s="26" t="s">
         <v>513</v>
-      </c>
-      <c r="C163" s="50" t="s">
-        <v>514</v>
-      </c>
-      <c r="D163" s="26" t="s">
-        <v>515</v>
       </c>
       <c r="E163" s="22"/>
     </row>
@@ -5921,13 +5905,13 @@
         <v>263</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C164" s="31">
         <v>9013102</v>
       </c>
       <c r="D164" s="26" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E164" s="22"/>
     </row>
@@ -5936,13 +5920,13 @@
         <v>264</v>
       </c>
       <c r="B165" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="D165" s="26" t="s">
         <v>518</v>
-      </c>
-      <c r="C165" s="23" t="s">
-        <v>519</v>
-      </c>
-      <c r="D165" s="26" t="s">
-        <v>520</v>
       </c>
       <c r="E165" s="43" t="s">
         <v>3</v>
@@ -5953,16 +5937,16 @@
         <v>265</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C166" s="25">
         <v>2541423</v>
       </c>
       <c r="D166" s="26" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E166" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -5970,13 +5954,13 @@
         <v>266</v>
       </c>
       <c r="B167" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C167" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="D167" s="26" t="s">
         <v>521</v>
-      </c>
-      <c r="C167" s="25" t="s">
-        <v>522</v>
-      </c>
-      <c r="D167" s="26" t="s">
-        <v>523</v>
       </c>
       <c r="E167" s="22" t="s">
         <v>3</v>
@@ -5987,13 +5971,13 @@
         <v>267</v>
       </c>
       <c r="B168" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C168" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="D168" s="26" t="s">
         <v>524</v>
-      </c>
-      <c r="C168" s="25" t="s">
-        <v>525</v>
-      </c>
-      <c r="D168" s="26" t="s">
-        <v>526</v>
       </c>
       <c r="E168" s="22" t="s">
         <v>3</v>
@@ -6004,13 +5988,13 @@
         <v>268</v>
       </c>
       <c r="B169" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C169" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="D169" s="26" t="s">
         <v>527</v>
-      </c>
-      <c r="C169" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="D169" s="26" t="s">
-        <v>529</v>
       </c>
       <c r="E169" s="22" t="s">
         <v>3</v>
@@ -6021,13 +6005,13 @@
         <v>269</v>
       </c>
       <c r="B170" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C170" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="D170" s="26" t="s">
         <v>530</v>
-      </c>
-      <c r="C170" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="D170" s="26" t="s">
-        <v>532</v>
       </c>
       <c r="E170" s="22" t="s">
         <v>3</v>
@@ -6038,13 +6022,13 @@
         <v>270</v>
       </c>
       <c r="B171" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="C171" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="D171" s="26" t="s">
         <v>533</v>
-      </c>
-      <c r="C171" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="D171" s="26" t="s">
-        <v>535</v>
       </c>
       <c r="E171" s="22" t="s">
         <v>3</v>
@@ -6055,13 +6039,13 @@
         <v>271</v>
       </c>
       <c r="B172" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C172" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="D172" s="26" t="s">
         <v>536</v>
-      </c>
-      <c r="C172" s="25" t="s">
-        <v>537</v>
-      </c>
-      <c r="D172" s="26" t="s">
-        <v>538</v>
       </c>
       <c r="E172" s="22" t="s">
         <v>3</v>
@@ -6072,13 +6056,13 @@
         <v>272</v>
       </c>
       <c r="B173" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C173" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="D173" s="26" t="s">
         <v>539</v>
-      </c>
-      <c r="C173" s="25" t="s">
-        <v>540</v>
-      </c>
-      <c r="D173" s="26" t="s">
-        <v>541</v>
       </c>
       <c r="E173" s="22" t="s">
         <v>3</v>
@@ -6089,13 +6073,13 @@
         <v>273</v>
       </c>
       <c r="B174" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C174" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="D174" s="26" t="s">
         <v>542</v>
-      </c>
-      <c r="C174" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="D174" s="26" t="s">
-        <v>544</v>
       </c>
       <c r="E174" s="22" t="s">
         <v>3</v>
@@ -6106,13 +6090,13 @@
         <v>274</v>
       </c>
       <c r="B175" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="C175" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="D175" s="26" t="s">
         <v>545</v>
-      </c>
-      <c r="C175" s="25" t="s">
-        <v>546</v>
-      </c>
-      <c r="D175" s="26" t="s">
-        <v>547</v>
       </c>
       <c r="E175" s="22" t="s">
         <v>3</v>
@@ -6123,16 +6107,16 @@
         <v>275</v>
       </c>
       <c r="B176" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="C176" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="D176" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="C176" s="25" t="s">
-        <v>549</v>
-      </c>
-      <c r="D176" s="26" t="s">
-        <v>550</v>
-      </c>
       <c r="E176" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6140,13 +6124,13 @@
         <v>276</v>
       </c>
       <c r="B177" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C177" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="D177" s="26" t="s">
         <v>551</v>
-      </c>
-      <c r="C177" s="25" t="s">
-        <v>552</v>
-      </c>
-      <c r="D177" s="26" t="s">
-        <v>553</v>
       </c>
       <c r="E177" s="22" t="s">
         <v>3</v>
@@ -6157,13 +6141,13 @@
         <v>277</v>
       </c>
       <c r="B178" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C178" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="D178" s="26" t="s">
         <v>554</v>
-      </c>
-      <c r="C178" s="25" t="s">
-        <v>555</v>
-      </c>
-      <c r="D178" s="26" t="s">
-        <v>556</v>
       </c>
       <c r="E178" s="22" t="s">
         <v>3</v>
@@ -6174,16 +6158,16 @@
         <v>278</v>
       </c>
       <c r="B179" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C179" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="D179" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="C179" s="25" t="s">
-        <v>558</v>
-      </c>
-      <c r="D179" s="26" t="s">
-        <v>559</v>
-      </c>
       <c r="E179" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6191,16 +6175,16 @@
         <v>279</v>
       </c>
       <c r="B180" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C180" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="D180" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="C180" s="25" t="s">
-        <v>561</v>
-      </c>
-      <c r="D180" s="26" t="s">
-        <v>562</v>
-      </c>
       <c r="E180" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6208,13 +6192,13 @@
         <v>280</v>
       </c>
       <c r="B181" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C181" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="D181" s="26" t="s">
         <v>563</v>
-      </c>
-      <c r="C181" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="D181" s="26" t="s">
-        <v>565</v>
       </c>
       <c r="E181" s="22" t="s">
         <v>3</v>
@@ -6225,13 +6209,13 @@
         <v>281</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C182" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="D182" s="26" t="s">
         <v>566</v>
-      </c>
-      <c r="C182" s="25" t="s">
-        <v>567</v>
-      </c>
-      <c r="D182" s="26" t="s">
-        <v>568</v>
       </c>
       <c r="E182" s="22" t="s">
         <v>3</v>
@@ -6242,13 +6226,13 @@
         <v>282</v>
       </c>
       <c r="B183" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C183" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="D183" s="26" t="s">
         <v>569</v>
-      </c>
-      <c r="C183" s="25" t="s">
-        <v>570</v>
-      </c>
-      <c r="D183" s="26" t="s">
-        <v>571</v>
       </c>
       <c r="E183" s="22" t="s">
         <v>3</v>
@@ -6259,13 +6243,13 @@
         <v>283</v>
       </c>
       <c r="B184" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C184" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="D184" s="26" t="s">
         <v>572</v>
-      </c>
-      <c r="C184" s="25" t="s">
-        <v>573</v>
-      </c>
-      <c r="D184" s="26" t="s">
-        <v>574</v>
       </c>
       <c r="E184" s="22" t="s">
         <v>3</v>
@@ -6276,13 +6260,13 @@
         <v>284</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C185" s="25">
         <v>4996946</v>
       </c>
       <c r="D185" s="26" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E185" s="22" t="s">
         <v>3</v>
@@ -6293,16 +6277,16 @@
         <v>285</v>
       </c>
       <c r="B186" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="C186" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="D186" s="26" t="s">
         <v>577</v>
       </c>
-      <c r="C186" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="D186" s="26" t="s">
-        <v>579</v>
-      </c>
       <c r="E186" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6310,16 +6294,16 @@
         <v>286</v>
       </c>
       <c r="B187" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C187" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="D187" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="C187" s="25" t="s">
-        <v>581</v>
-      </c>
-      <c r="D187" s="26" t="s">
-        <v>582</v>
-      </c>
       <c r="E187" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6327,16 +6311,16 @@
         <v>287</v>
       </c>
       <c r="B188" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="C188" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="D188" s="26" t="s">
         <v>583</v>
       </c>
-      <c r="C188" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="D188" s="26" t="s">
-        <v>585</v>
-      </c>
       <c r="E188" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6344,16 +6328,16 @@
         <v>288</v>
       </c>
       <c r="B189" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C189" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="D189" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="C189" s="25" t="s">
-        <v>587</v>
-      </c>
-      <c r="D189" s="26" t="s">
-        <v>588</v>
-      </c>
       <c r="E189" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6361,13 +6345,13 @@
         <v>289</v>
       </c>
       <c r="B190" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C190" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="D190" s="26" t="s">
         <v>589</v>
-      </c>
-      <c r="C190" s="25" t="s">
-        <v>590</v>
-      </c>
-      <c r="D190" s="26" t="s">
-        <v>591</v>
       </c>
       <c r="E190" s="22" t="s">
         <v>3</v>
@@ -6378,13 +6362,13 @@
         <v>290</v>
       </c>
       <c r="B191" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C191" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="D191" s="26" t="s">
         <v>592</v>
-      </c>
-      <c r="C191" s="25" t="s">
-        <v>593</v>
-      </c>
-      <c r="D191" s="26" t="s">
-        <v>594</v>
       </c>
       <c r="E191" s="22" t="s">
         <v>3</v>
@@ -6395,13 +6379,13 @@
         <v>291</v>
       </c>
       <c r="B192" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C192" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="D192" s="26" t="s">
         <v>595</v>
-      </c>
-      <c r="C192" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="D192" s="26" t="s">
-        <v>597</v>
       </c>
       <c r="E192" s="22" t="s">
         <v>3</v>
@@ -6412,13 +6396,13 @@
         <v>292</v>
       </c>
       <c r="B193" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C193" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="D193" s="26" t="s">
         <v>598</v>
-      </c>
-      <c r="C193" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="D193" s="26" t="s">
-        <v>600</v>
       </c>
       <c r="E193" s="22" t="s">
         <v>3</v>
@@ -6429,13 +6413,13 @@
         <v>293</v>
       </c>
       <c r="B194" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C194" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="D194" s="26" t="s">
         <v>601</v>
-      </c>
-      <c r="C194" s="25" t="s">
-        <v>602</v>
-      </c>
-      <c r="D194" s="26" t="s">
-        <v>603</v>
       </c>
       <c r="E194" s="22" t="s">
         <v>3</v>
@@ -6446,13 +6430,13 @@
         <v>294</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C195" s="25">
         <v>6844285</v>
       </c>
       <c r="D195" s="26" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E195" s="22" t="s">
         <v>3</v>
@@ -6463,13 +6447,13 @@
         <v>295</v>
       </c>
       <c r="B196" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="C196" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="D196" s="26" t="s">
         <v>605</v>
-      </c>
-      <c r="C196" s="25" t="s">
-        <v>606</v>
-      </c>
-      <c r="D196" s="26" t="s">
-        <v>607</v>
       </c>
       <c r="E196" s="22" t="s">
         <v>3</v>
@@ -6480,13 +6464,13 @@
         <v>296</v>
       </c>
       <c r="B197" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="C197" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="D197" s="26" t="s">
         <v>608</v>
-      </c>
-      <c r="C197" s="25" t="s">
-        <v>609</v>
-      </c>
-      <c r="D197" s="26" t="s">
-        <v>610</v>
       </c>
       <c r="E197" s="22" t="s">
         <v>3</v>
@@ -6497,13 +6481,13 @@
         <v>297</v>
       </c>
       <c r="B198" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C198" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="D198" s="26" t="s">
         <v>611</v>
-      </c>
-      <c r="C198" s="25" t="s">
-        <v>612</v>
-      </c>
-      <c r="D198" s="26" t="s">
-        <v>613</v>
       </c>
       <c r="E198" s="22" t="s">
         <v>3</v>
@@ -6514,13 +6498,13 @@
         <v>298</v>
       </c>
       <c r="B199" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C199" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="D199" s="26" t="s">
         <v>614</v>
-      </c>
-      <c r="C199" s="25" t="s">
-        <v>615</v>
-      </c>
-      <c r="D199" s="26" t="s">
-        <v>616</v>
       </c>
       <c r="E199" s="22" t="s">
         <v>3</v>
@@ -6531,13 +6515,13 @@
         <v>299</v>
       </c>
       <c r="B200" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C200" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="D200" s="26" t="s">
         <v>617</v>
-      </c>
-      <c r="C200" s="25" t="s">
-        <v>618</v>
-      </c>
-      <c r="D200" s="26" t="s">
-        <v>619</v>
       </c>
       <c r="E200" s="22" t="s">
         <v>3</v>
@@ -6548,13 +6532,13 @@
         <v>300</v>
       </c>
       <c r="B201" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C201" s="25" t="s">
+        <v>619</v>
+      </c>
+      <c r="D201" s="26" t="s">
         <v>620</v>
-      </c>
-      <c r="C201" s="25" t="s">
-        <v>621</v>
-      </c>
-      <c r="D201" s="26" t="s">
-        <v>622</v>
       </c>
       <c r="E201" s="22" t="s">
         <v>3</v>
@@ -6565,16 +6549,16 @@
         <v>301</v>
       </c>
       <c r="B202" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C202" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="D202" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="C202" s="25" t="s">
-        <v>624</v>
-      </c>
-      <c r="D202" s="26" t="s">
-        <v>625</v>
-      </c>
       <c r="E202" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6582,13 +6566,13 @@
         <v>302</v>
       </c>
       <c r="B203" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C203" s="25" t="s">
+        <v>625</v>
+      </c>
+      <c r="D203" s="26" t="s">
         <v>626</v>
-      </c>
-      <c r="C203" s="25" t="s">
-        <v>627</v>
-      </c>
-      <c r="D203" s="26" t="s">
-        <v>628</v>
       </c>
       <c r="E203" s="22" t="s">
         <v>3</v>
@@ -6599,13 +6583,13 @@
         <v>303</v>
       </c>
       <c r="B204" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="C204" s="25" t="s">
+        <v>628</v>
+      </c>
+      <c r="D204" s="26" t="s">
         <v>629</v>
-      </c>
-      <c r="C204" s="25" t="s">
-        <v>630</v>
-      </c>
-      <c r="D204" s="26" t="s">
-        <v>631</v>
       </c>
       <c r="E204" s="22" t="s">
         <v>3</v>
@@ -6616,13 +6600,13 @@
         <v>304</v>
       </c>
       <c r="B205" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="C205" s="25" t="s">
+        <v>631</v>
+      </c>
+      <c r="D205" s="26" t="s">
         <v>632</v>
-      </c>
-      <c r="C205" s="25" t="s">
-        <v>633</v>
-      </c>
-      <c r="D205" s="26" t="s">
-        <v>634</v>
       </c>
       <c r="E205" s="22" t="s">
         <v>3</v>
@@ -6633,13 +6617,13 @@
         <v>305</v>
       </c>
       <c r="B206" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="C206" s="25" t="s">
+        <v>634</v>
+      </c>
+      <c r="D206" s="26" t="s">
         <v>635</v>
-      </c>
-      <c r="C206" s="25" t="s">
-        <v>636</v>
-      </c>
-      <c r="D206" s="26" t="s">
-        <v>637</v>
       </c>
       <c r="E206" s="22" t="s">
         <v>3</v>
@@ -6650,13 +6634,13 @@
         <v>306</v>
       </c>
       <c r="B207" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="C207" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="D207" s="26" t="s">
         <v>638</v>
-      </c>
-      <c r="C207" s="25" t="s">
-        <v>639</v>
-      </c>
-      <c r="D207" s="26" t="s">
-        <v>640</v>
       </c>
       <c r="E207" s="22" t="s">
         <v>3</v>
@@ -6667,13 +6651,13 @@
         <v>307</v>
       </c>
       <c r="B208" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C208" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="D208" s="26" t="s">
         <v>641</v>
-      </c>
-      <c r="C208" s="25" t="s">
-        <v>642</v>
-      </c>
-      <c r="D208" s="26" t="s">
-        <v>643</v>
       </c>
       <c r="E208" s="22" t="s">
         <v>3</v>
@@ -6684,16 +6668,16 @@
         <v>308</v>
       </c>
       <c r="B209" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="C209" s="25" t="s">
+        <v>643</v>
+      </c>
+      <c r="D209" s="26" t="s">
         <v>644</v>
       </c>
-      <c r="C209" s="25" t="s">
-        <v>645</v>
-      </c>
-      <c r="D209" s="26" t="s">
-        <v>646</v>
-      </c>
       <c r="E209" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6701,13 +6685,13 @@
         <v>309</v>
       </c>
       <c r="B210" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="C210" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="D210" s="26" t="s">
         <v>647</v>
-      </c>
-      <c r="C210" s="25" t="s">
-        <v>648</v>
-      </c>
-      <c r="D210" s="26" t="s">
-        <v>649</v>
       </c>
       <c r="E210" s="22" t="s">
         <v>3</v>
@@ -6718,13 +6702,13 @@
         <v>310</v>
       </c>
       <c r="B211" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C211" s="25" t="s">
+        <v>649</v>
+      </c>
+      <c r="D211" s="26" t="s">
         <v>650</v>
-      </c>
-      <c r="C211" s="25" t="s">
-        <v>651</v>
-      </c>
-      <c r="D211" s="26" t="s">
-        <v>652</v>
       </c>
       <c r="E211" s="22" t="s">
         <v>3</v>
@@ -6735,13 +6719,13 @@
         <v>311</v>
       </c>
       <c r="B212" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C212" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="D212" s="26" t="s">
         <v>653</v>
-      </c>
-      <c r="C212" s="25" t="s">
-        <v>654</v>
-      </c>
-      <c r="D212" s="26" t="s">
-        <v>655</v>
       </c>
       <c r="E212" s="22" t="s">
         <v>3</v>
@@ -6752,13 +6736,13 @@
         <v>312</v>
       </c>
       <c r="B213" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C213" s="25" t="s">
+        <v>655</v>
+      </c>
+      <c r="D213" s="26" t="s">
         <v>656</v>
-      </c>
-      <c r="C213" s="25" t="s">
-        <v>657</v>
-      </c>
-      <c r="D213" s="26" t="s">
-        <v>658</v>
       </c>
       <c r="E213" s="22" t="s">
         <v>3</v>
@@ -6769,13 +6753,13 @@
         <v>313</v>
       </c>
       <c r="B214" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="C214" s="25" t="s">
+        <v>658</v>
+      </c>
+      <c r="D214" s="26" t="s">
         <v>659</v>
-      </c>
-      <c r="C214" s="25" t="s">
-        <v>660</v>
-      </c>
-      <c r="D214" s="26" t="s">
-        <v>661</v>
       </c>
       <c r="E214" s="22" t="s">
         <v>3</v>
@@ -6786,16 +6770,16 @@
         <v>314</v>
       </c>
       <c r="B215" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C215" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="D215" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="C215" s="25" t="s">
-        <v>663</v>
-      </c>
-      <c r="D215" s="26" t="s">
-        <v>664</v>
-      </c>
       <c r="E215" s="43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6803,16 +6787,16 @@
         <v>315</v>
       </c>
       <c r="B216" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="C216" s="25" t="s">
+        <v>664</v>
+      </c>
+      <c r="D216" s="26" t="s">
         <v>665</v>
       </c>
-      <c r="C216" s="25" t="s">
-        <v>666</v>
-      </c>
-      <c r="D216" s="26" t="s">
-        <v>667</v>
-      </c>
       <c r="E216" s="43" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6820,13 +6804,13 @@
         <v>316</v>
       </c>
       <c r="B217" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C217" s="25" t="s">
+        <v>667</v>
+      </c>
+      <c r="D217" s="26" t="s">
         <v>668</v>
-      </c>
-      <c r="C217" s="25" t="s">
-        <v>669</v>
-      </c>
-      <c r="D217" s="26" t="s">
-        <v>670</v>
       </c>
       <c r="E217" s="43" t="s">
         <v>3</v>
@@ -6837,13 +6821,13 @@
         <v>317</v>
       </c>
       <c r="B218" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C218" s="25" t="s">
+        <v>670</v>
+      </c>
+      <c r="D218" s="26" t="s">
         <v>671</v>
-      </c>
-      <c r="C218" s="25" t="s">
-        <v>672</v>
-      </c>
-      <c r="D218" s="26" t="s">
-        <v>673</v>
       </c>
       <c r="E218" s="43" t="s">
         <v>3</v>
@@ -6854,10 +6838,10 @@
         <v>318</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C219" s="25" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D219" s="26"/>
       <c r="E219" s="43"/>
@@ -6867,10 +6851,10 @@
         <v>319</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C220" s="25" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D220" s="26"/>
       <c r="E220" s="43" t="s">
@@ -6882,10 +6866,10 @@
         <v>320</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C221" s="25" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D221" s="26"/>
       <c r="E221" s="43" t="s">
@@ -6897,13 +6881,13 @@
         <v>321</v>
       </c>
       <c r="B222" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="C222" s="25" t="s">
+        <v>679</v>
+      </c>
+      <c r="D222" s="26" t="s">
         <v>680</v>
-      </c>
-      <c r="C222" s="25" t="s">
-        <v>681</v>
-      </c>
-      <c r="D222" s="26" t="s">
-        <v>682</v>
       </c>
       <c r="E222" s="43" t="s">
         <v>3</v>
@@ -6914,13 +6898,13 @@
         <v>322</v>
       </c>
       <c r="B223" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="C223" s="25" t="s">
+        <v>682</v>
+      </c>
+      <c r="D223" s="26" t="s">
         <v>683</v>
-      </c>
-      <c r="C223" s="25" t="s">
-        <v>684</v>
-      </c>
-      <c r="D223" s="26" t="s">
-        <v>685</v>
       </c>
       <c r="E223" s="43" t="s">
         <v>3</v>
@@ -6931,13 +6915,13 @@
         <v>323</v>
       </c>
       <c r="B224" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="C224" s="25" t="s">
+        <v>685</v>
+      </c>
+      <c r="D224" s="26" t="s">
         <v>686</v>
-      </c>
-      <c r="C224" s="25" t="s">
-        <v>687</v>
-      </c>
-      <c r="D224" s="26" t="s">
-        <v>688</v>
       </c>
       <c r="E224" s="43" t="s">
         <v>3</v>
@@ -6948,16 +6932,16 @@
         <v>324</v>
       </c>
       <c r="B225" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="C225" s="25" t="s">
+        <v>688</v>
+      </c>
+      <c r="D225" s="26" t="s">
         <v>689</v>
       </c>
-      <c r="C225" s="25" t="s">
-        <v>690</v>
-      </c>
-      <c r="D225" s="26" t="s">
-        <v>691</v>
-      </c>
       <c r="E225" s="43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6965,10 +6949,10 @@
         <v>325</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C226" s="43" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D226" s="26"/>
       <c r="E226" s="43" t="s">
@@ -6980,13 +6964,13 @@
         <v>325</v>
       </c>
       <c r="B227" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C227" s="43" t="s">
+        <v>693</v>
+      </c>
+      <c r="D227" s="26" t="s">
         <v>694</v>
-      </c>
-      <c r="C227" s="43" t="s">
-        <v>695</v>
-      </c>
-      <c r="D227" s="26" t="s">
-        <v>696</v>
       </c>
       <c r="E227" s="43" t="s">
         <v>3</v>
